--- a/inst/extdata/HowtoMake_CNindexFile.xlsx
+++ b/inst/extdata/HowtoMake_CNindexFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veirus\2020\sara4r_data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veirus\Test\Paquete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C90526-EB37-4740-BC75-3928663600B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEF4EE4-5333-44FA-A113-BFB1A8AE6FAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB930884-612B-4A0A-824A-AB6A862919FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB930884-612B-4A0A-824A-AB6A862919FE}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSample" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>CoverID</t>
   </si>
@@ -39,15 +34,6 @@
     <t>Class</t>
   </si>
   <si>
-    <t>Crops</t>
-  </si>
-  <si>
-    <t>Littoral</t>
-  </si>
-  <si>
-    <t>Mangrove</t>
-  </si>
-  <si>
     <t>Villages</t>
   </si>
   <si>
@@ -81,9 +67,6 @@
     <t>CN</t>
   </si>
   <si>
-    <t>Forested Wetland</t>
-  </si>
-  <si>
     <t>Deciduous Forest</t>
   </si>
   <si>
@@ -93,16 +76,31 @@
     <t>Pasture (Fair)</t>
   </si>
   <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>Beaches</t>
-  </si>
-  <si>
     <t>NRCS database</t>
   </si>
   <si>
-    <t>Burned land</t>
+    <t>Fallow (crop residue)</t>
+  </si>
+  <si>
+    <t>Agricultural soils</t>
+  </si>
+  <si>
+    <t>Orchards</t>
+  </si>
+  <si>
+    <t>Row crops</t>
+  </si>
+  <si>
+    <t>Fallow (Bare Soil)</t>
+  </si>
+  <si>
+    <t>Fallow (Crop residue cover)</t>
+  </si>
+  <si>
+    <t>Row crops (straight row)</t>
+  </si>
+  <si>
+    <t>Woods (orchard or tree farm)</t>
   </si>
 </sst>
 </file>
@@ -179,23 +177,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>191262</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>67056</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>67056</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>103632</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6">
+        <xdr:cNvPr id="11" name="Imagen 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2B821A-0B37-424D-8510-0BD6F39FB5A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FFD594D-7AC0-4C10-B00B-7740392C7322}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -217,8 +215,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2476500"/>
-          <a:ext cx="4325112" cy="5401056"/>
+          <a:off x="14039850" y="2476500"/>
+          <a:ext cx="5401056" cy="4675632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -229,23 +227,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>515112</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>67056</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>67056</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>103632</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="12" name="Imagen 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA004B3C-025C-43A7-A1A1-67E5619CE151}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDAB4C72-A795-4ACC-BEAE-0F460CB7E6DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -267,8 +265,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4895850" y="2476500"/>
-          <a:ext cx="4325112" cy="5401056"/>
+          <a:off x="5657850" y="2476500"/>
+          <a:ext cx="5401056" cy="4675632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>505206</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>103632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281CF7AB-86DC-41CF-8C44-A8115DD5140B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2476500"/>
+          <a:ext cx="5401056" cy="4675632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -577,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411C619C-2E48-4F76-86F2-3DB89E198409}">
-  <dimension ref="A3:L39"/>
+  <dimension ref="A3:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,9 +637,9 @@
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -600,32 +648,35 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>98</v>
@@ -639,161 +690,161 @@
       <c r="G4">
         <v>98</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>11</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E5">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="G5">
-        <v>77</v>
-      </c>
-      <c r="K5">
+        <v>94</v>
+      </c>
+      <c r="N5">
         <v>12</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="E6">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="F6">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G6">
-        <v>85</v>
-      </c>
-      <c r="K6">
+        <v>93</v>
+      </c>
+      <c r="N6">
         <v>13</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F7">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="G7">
-        <v>79</v>
-      </c>
-      <c r="K7">
+        <v>91</v>
+      </c>
+      <c r="N7">
         <v>14</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>58</v>
+      </c>
+      <c r="F8">
+        <v>72</v>
+      </c>
+      <c r="G8">
+        <v>79</v>
+      </c>
+      <c r="N8">
+        <v>21</v>
+      </c>
+      <c r="O8">
         <v>77</v>
       </c>
-      <c r="E8">
-        <v>86</v>
-      </c>
-      <c r="F8">
-        <v>91</v>
-      </c>
-      <c r="G8">
-        <v>94</v>
-      </c>
-      <c r="K8">
-        <v>21</v>
-      </c>
-      <c r="L8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F9">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G9">
-        <v>84</v>
-      </c>
-      <c r="K9">
+        <v>85</v>
+      </c>
+      <c r="N9">
         <v>22</v>
       </c>
-      <c r="L9">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>70</v>
@@ -802,293 +853,296 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F10">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="G10">
-        <v>50</v>
-      </c>
-      <c r="K10">
+        <v>79</v>
+      </c>
+      <c r="N10">
         <v>23</v>
       </c>
-      <c r="L10">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>80</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>46</v>
-      </c>
-      <c r="E11" s="2">
-        <v>65</v>
-      </c>
-      <c r="F11" s="2">
-        <v>77</v>
-      </c>
-      <c r="G11" s="2">
-        <v>82</v>
-      </c>
-      <c r="K11">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>69</v>
+      </c>
+      <c r="F11">
+        <v>79</v>
+      </c>
+      <c r="G11">
+        <v>84</v>
+      </c>
+      <c r="N11">
         <v>24</v>
       </c>
-      <c r="L11">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
       <c r="B12">
         <v>90</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2">
+        <v>77</v>
+      </c>
+      <c r="G12" s="2">
+        <v>82</v>
+      </c>
+      <c r="N12">
+        <v>31</v>
+      </c>
+      <c r="O12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>32</v>
+      </c>
+      <c r="O13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>33</v>
+      </c>
+      <c r="O14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>34</v>
+      </c>
+      <c r="O15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>41</v>
+      </c>
+      <c r="O16">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>42</v>
+      </c>
+      <c r="O17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>43</v>
+      </c>
+      <c r="O18">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>44</v>
+      </c>
+      <c r="O19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>51</v>
+      </c>
+      <c r="O20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>52</v>
+      </c>
+      <c r="O21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>53</v>
+      </c>
+      <c r="O22">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>54</v>
+      </c>
+      <c r="O23">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>61</v>
+      </c>
+      <c r="O24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>62</v>
+      </c>
+      <c r="O25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>63</v>
+      </c>
+      <c r="O26">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>64</v>
+      </c>
+      <c r="O27">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>71</v>
+      </c>
+      <c r="O28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <v>72</v>
+      </c>
+      <c r="O29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>73</v>
+      </c>
+      <c r="O30">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>74</v>
+      </c>
+      <c r="O31">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>81</v>
+      </c>
+      <c r="O32">
         <v>49</v>
       </c>
-      <c r="E12">
+    </row>
+    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>82</v>
+      </c>
+      <c r="O33">
         <v>69</v>
       </c>
-      <c r="F12">
+    </row>
+    <row r="34" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>83</v>
+      </c>
+      <c r="O34">
         <v>79</v>
       </c>
-      <c r="G12">
+    </row>
+    <row r="35" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N35">
         <v>84</v>
       </c>
-      <c r="K12">
-        <v>31</v>
-      </c>
-      <c r="L12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K13">
-        <v>32</v>
-      </c>
-      <c r="L13">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K14">
-        <v>33</v>
-      </c>
-      <c r="L14">
+      <c r="O35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>91</v>
+      </c>
+      <c r="O36" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>92</v>
+      </c>
+      <c r="O37" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>93</v>
+      </c>
+      <c r="O38" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K15">
-        <v>34</v>
-      </c>
-      <c r="L15">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K16">
-        <v>41</v>
-      </c>
-      <c r="L16">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K17">
-        <v>42</v>
-      </c>
-      <c r="L17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K18">
-        <v>43</v>
-      </c>
-      <c r="L18">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K19">
-        <v>44</v>
-      </c>
-      <c r="L19">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K20">
-        <v>51</v>
-      </c>
-      <c r="L20">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K21">
-        <v>52</v>
-      </c>
-      <c r="L21">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K22">
-        <v>53</v>
-      </c>
-      <c r="L22">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K23">
-        <v>54</v>
-      </c>
-      <c r="L23">
+    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N39">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K24">
-        <v>61</v>
-      </c>
-      <c r="L24">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K25">
-        <v>62</v>
-      </c>
-      <c r="L25">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K26">
-        <v>63</v>
-      </c>
-      <c r="L26">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K27">
-        <v>64</v>
-      </c>
-      <c r="L27">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K28">
-        <v>71</v>
-      </c>
-      <c r="L28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K29">
-        <v>72</v>
-      </c>
-      <c r="L29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K30">
-        <v>73</v>
-      </c>
-      <c r="L30">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K31">
-        <v>74</v>
-      </c>
-      <c r="L31">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K32">
-        <v>81</v>
-      </c>
-      <c r="L32" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K33">
+      <c r="O39" s="2">
         <v>82</v>
-      </c>
-      <c r="L33" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K34">
-        <v>83</v>
-      </c>
-      <c r="L34" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K35">
-        <v>84</v>
-      </c>
-      <c r="L35" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K36">
-        <v>91</v>
-      </c>
-      <c r="L36">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K37">
-        <v>92</v>
-      </c>
-      <c r="L37">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K38">
-        <v>93</v>
-      </c>
-      <c r="L38">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K39">
-        <v>94</v>
-      </c>
-      <c r="L39">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1102,9 +1156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F3BCC6-B0F9-4BD6-87C4-E52B1ADAF673}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1160,7 +1212,7 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1171,7 +1223,7 @@
         <v>23</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1182,7 +1234,7 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1193,7 +1245,7 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1204,7 +1256,7 @@
         <v>32</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1215,7 +1267,7 @@
         <v>33</v>
       </c>
       <c r="C10">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1226,7 +1278,7 @@
         <v>34</v>
       </c>
       <c r="C11">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1237,7 +1289,7 @@
         <v>35</v>
       </c>
       <c r="C12">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,7 +1300,7 @@
         <v>42</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1259,7 +1311,7 @@
         <v>43</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1270,7 +1322,7 @@
         <v>44</v>
       </c>
       <c r="C15">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1281,7 +1333,7 @@
         <v>45</v>
       </c>
       <c r="C16">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1292,7 +1344,7 @@
         <v>52</v>
       </c>
       <c r="C17">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1303,7 +1355,7 @@
         <v>53</v>
       </c>
       <c r="C18">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1314,7 +1366,7 @@
         <v>54</v>
       </c>
       <c r="C19">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1325,7 +1377,7 @@
         <v>55</v>
       </c>
       <c r="C20">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1336,7 +1388,7 @@
         <v>62</v>
       </c>
       <c r="C21">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1347,7 +1399,7 @@
         <v>63</v>
       </c>
       <c r="C22">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1358,7 +1410,7 @@
         <v>64</v>
       </c>
       <c r="C23">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1369,7 +1421,7 @@
         <v>65</v>
       </c>
       <c r="C24">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1380,7 +1432,7 @@
         <v>72</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1391,7 +1443,7 @@
         <v>73</v>
       </c>
       <c r="C26">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1402,7 +1454,7 @@
         <v>74</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1413,7 +1465,7 @@
         <v>75</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1424,7 +1476,7 @@
         <v>82</v>
       </c>
       <c r="C29">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1435,7 +1487,7 @@
         <v>83</v>
       </c>
       <c r="C30">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1446,7 +1498,7 @@
         <v>84</v>
       </c>
       <c r="C31">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1457,7 +1509,7 @@
         <v>85</v>
       </c>
       <c r="C32">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1467,8 +1519,8 @@
       <c r="B33">
         <v>92</v>
       </c>
-      <c r="C33">
-        <v>49</v>
+      <c r="C33" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1478,8 +1530,8 @@
       <c r="B34">
         <v>93</v>
       </c>
-      <c r="C34">
-        <v>69</v>
+      <c r="C34" s="2">
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1489,8 +1541,8 @@
       <c r="B35">
         <v>94</v>
       </c>
-      <c r="C35">
-        <v>79</v>
+      <c r="C35" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1500,8 +1552,8 @@
       <c r="B36">
         <v>95</v>
       </c>
-      <c r="C36">
-        <v>84</v>
+      <c r="C36" s="2">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
